--- a/data/case1/16/Q1_4.xlsx
+++ b/data/case1/16/Q1_4.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.093119678411703433</v>
+        <v>0.093714853270462584</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999998328024162</v>
+        <v>-0.0059999999140387672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999998650568358</v>
+        <v>-0.0039999999311568502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999997513340304</v>
+        <v>-0.0079999998724549215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999998831344854</v>
+        <v>-0.0029999999402230415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999998968440735</v>
+        <v>-0.0019999999482021025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999996765389731</v>
+        <v>-0.0099999998350721597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999996772952571</v>
+        <v>-0.0099999998352560127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999032198623</v>
+        <v>-0.0019999999509172639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999105291266</v>
+        <v>-0.0019999999543767188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999998832881403</v>
+        <v>-0.0029999999403882427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999998711602309</v>
+        <v>-0.0034999999352622879</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0063998089990571216</v>
+        <v>0.0042319541705655439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999997721023064</v>
+        <v>-0.0079999998831894459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.03291948345601714</v>
+        <v>0.03411309792077688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999420643455</v>
+        <v>-0.0019999999703741445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999387092515</v>
+        <v>-0.0019999999686026726</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999998835309469</v>
+        <v>-0.0039999999400555097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999998872088938</v>
+        <v>-0.0039999999419708665</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999998835877904</v>
+        <v>-0.003999999940768717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.003999999884054084</v>
+        <v>-0.003999999941082244</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0094966408989627382</v>
+        <v>0.0095951682939476868</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999998267686863</v>
+        <v>-0.0049999999115737381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999392776857</v>
+        <v>-0.01999999968994981</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999383494504</v>
+        <v>-0.019999999685413883</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999998827208714</v>
+        <v>-0.0024999999408592544</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999998820813829</v>
+        <v>-0.002499999940439146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999998905051442</v>
+        <v>-0.0019999999452551265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999997507599332</v>
+        <v>-0.0069999998737273472</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.05999999829554481</v>
+        <v>-0.059999999126776338</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.016313689644819718</v>
+        <v>0.01647415548313802</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.049873018240292666</v>
+        <v>0.050146151347254531</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998747468624</v>
+        <v>-0.0039999999357274163</v>
       </c>
     </row>
   </sheetData>
